--- a/biology/Botanique/Botryotinia_fuckeliana/Botryotinia_fuckeliana.xlsx
+++ b/biology/Botanique/Botryotinia_fuckeliana/Botryotinia_fuckeliana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Botryotinia fuckeliana[1] est une espèce de champignons ascomycètes phytopathogènes. Ce champignon, qui est l'agent de la pourriture grise affectant de nombreuses espèces de plantes, est mieux connu sous sa forme anamorphe, Botrytis cinerea (voir le traitement complet sous cette entrée).
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Botryotinia fuckeliana est une espèce de champignons ascomycètes phytopathogènes. Ce champignon, qui est l'agent de la pourriture grise affectant de nombreuses espèces de plantes, est mieux connu sous sa forme anamorphe, Botrytis cinerea (voir le traitement complet sous cette entrée).
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Liste des sous-taxons</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (20 sept. 2011)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (20 sept. 2011) :
 Botryotinia fuckeliana B05.10
 Botryotinia fuckeliana isolate T4</t>
         </is>
@@ -543,7 +557,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Botrytis fuckeliana N.F. Buchw., (1949),
 Botrytis gemella (Bonord.) Sacc., (1881),
